--- a/Download File from Website/Project_Notebook.xlsx
+++ b/Download File from Website/Project_Notebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Documents\UiPath\StudioXTemplates\Download File from Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Desktop\UpdatedTemplates\Download File from Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768B0480-EB38-4321-865A-D0B5FA7E5D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4555B-52F3-472B-A476-516481A017B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
+    <workbookView xWindow="1980" yWindow="2280" windowWidth="20550" windowHeight="11835" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratchpad" sheetId="2" r:id="rId1"/>
@@ -877,12 +877,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="33"/>
-    </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" s="31"/>
       <c r="G4" s="33"/>
@@ -895,9 +889,6 @@
     <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="33"/>
-    </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G8" s="33"/>
     </row>
@@ -927,9 +918,6 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="33"/>
@@ -1007,7 +995,7 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>43898</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1012,7 @@
       </c>
       <c r="B6" s="2">
         <f ca="1">Date+Days</f>
-        <v>43905</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1033,7 +1021,7 @@
       </c>
       <c r="B7" s="2">
         <f ca="1">WORKDAY(Date, Days)</f>
-        <v>43907</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,7 +1030,7 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">TEXT(Date,"YYYYMMDD")</f>
-        <v>20200308</v>
+        <v>20200329</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1040,7 @@
       </c>
       <c r="B10" s="2">
         <f ca="1">TODAY()</f>
-        <v>43898</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,15 +1049,15 @@
       </c>
       <c r="B11" s="2">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)-6</f>
-        <v>43885</v>
+        <v>43906</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">LastWeekMonday+4</f>
-        <v>43889</v>
+        <v>43910</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">LastWeekFriday+2</f>
-        <v>43891</v>
+        <v>43912</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/Download File from Website/Project_Notebook.xlsx
+++ b/Download File from Website/Project_Notebook.xlsx
@@ -5,59 +5,60 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Desktop\UpdatedTemplates\Download File from Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Source\repos\StudioXTemplates\Download File from Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4555B-52F3-472B-A476-516481A017B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3245100F-06E6-4EE8-B897-F72B7E14A9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2280" windowWidth="20550" windowHeight="11835" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
+    <workbookView xWindow="6165" yWindow="390" windowWidth="19530" windowHeight="11490" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scratchpad" sheetId="2" r:id="rId1"/>
+    <sheet name="About the Project Notebook" sheetId="2" r:id="rId1"/>
     <sheet name="Date" sheetId="1" r:id="rId2"/>
     <sheet name="Text" sheetId="3" r:id="rId3"/>
     <sheet name="Number" sheetId="4" r:id="rId4"/>
     <sheet name="File" sheetId="5" r:id="rId5"/>
+    <sheet name="Custom" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="CleanNumber">Number!$B$4</definedName>
-    <definedName name="Contains">Text!$B$12</definedName>
-    <definedName name="Date">Date!$B$3</definedName>
-    <definedName name="DatePlusDays">Date!$B$6</definedName>
-    <definedName name="DatePlusWorkingDays">Date!$B$7</definedName>
-    <definedName name="DateText">Date!$B$17</definedName>
-    <definedName name="Days">Date!$B$5</definedName>
-    <definedName name="FileExtension">File!$B$8</definedName>
-    <definedName name="FileName">File!$B$7</definedName>
-    <definedName name="FileNameNoExtension">File!$B$9</definedName>
-    <definedName name="FirstName">Text!$B$14</definedName>
-    <definedName name="Folder">File!$B$10</definedName>
-    <definedName name="FullFileName">File!$B$5</definedName>
-    <definedName name="Int">Number!$B$5</definedName>
-    <definedName name="LastMonthEndDate">Date!$C$12</definedName>
-    <definedName name="LastMonthStartDate">Date!$B$12</definedName>
-    <definedName name="LastName">Text!$B$15</definedName>
-    <definedName name="LastWeekFriday">Date!$C$11</definedName>
-    <definedName name="LastWeekMonday">Date!$B$11</definedName>
-    <definedName name="LastWeekSunday">Date!$D$11</definedName>
-    <definedName name="Length">Text!$B$5</definedName>
-    <definedName name="LowerCase">Text!$B$7</definedName>
-    <definedName name="Number">Number!$B$3</definedName>
-    <definedName name="NumberText">Number!$B$10</definedName>
-    <definedName name="ReformattedDate">Date!$B$28</definedName>
-    <definedName name="ReformattedFileName">File!$B$14</definedName>
-    <definedName name="ReformattedNumber">Number!$B$14</definedName>
-    <definedName name="Replace">Text!$B$10</definedName>
-    <definedName name="Result">Text!$B$11</definedName>
-    <definedName name="Search">Text!$B$9</definedName>
-    <definedName name="Text">Text!$B$3</definedName>
-    <definedName name="ThisMonthFirstWorkingDay">Date!$B$13</definedName>
-    <definedName name="ThisMonthLastWorkingDay">Date!$C$13</definedName>
-    <definedName name="Today">Date!$B$10</definedName>
-    <definedName name="Trimmed">Text!$B$4</definedName>
-    <definedName name="TwoDecimals">Number!$B$6</definedName>
-    <definedName name="UpperCase">Text!$B$6</definedName>
-    <definedName name="YYYYMMDD">Date!$B$8</definedName>
+    <definedName name="CleanNumber">Number!$B$5</definedName>
+    <definedName name="Contains">Text!$B$13</definedName>
+    <definedName name="Date_Input">Date!$B$4</definedName>
+    <definedName name="DatePlusDays">Date!$B$7</definedName>
+    <definedName name="DatePlusWorkingDays">Date!$B$8</definedName>
+    <definedName name="DateText">Date!$B$18</definedName>
+    <definedName name="Days">Date!$B$6</definedName>
+    <definedName name="FileExtension">File!$B$9</definedName>
+    <definedName name="FileName">File!$B$8</definedName>
+    <definedName name="FileNameNoExtension">File!$B$10</definedName>
+    <definedName name="FirstName">Text!$B$15</definedName>
+    <definedName name="Folder">File!$B$11</definedName>
+    <definedName name="FullFileName_Input">File!$B$6</definedName>
+    <definedName name="Int">Number!$B$6</definedName>
+    <definedName name="LastMonthEndDate">Date!$C$13</definedName>
+    <definedName name="LastMonthStartDate">Date!$B$13</definedName>
+    <definedName name="LastName">Text!$B$16</definedName>
+    <definedName name="LastWeekFriday">Date!$C$12</definedName>
+    <definedName name="LastWeekMonday">Date!$B$12</definedName>
+    <definedName name="LastWeekSunday">Date!$D$12</definedName>
+    <definedName name="Length">Text!$B$6</definedName>
+    <definedName name="LowerCase">Text!$B$8</definedName>
+    <definedName name="Number_Input">Number!$B$4</definedName>
+    <definedName name="NumberText_Input">Number!$B$11</definedName>
+    <definedName name="ReformattedDate">Date!$B$29</definedName>
+    <definedName name="ReformattedFileName">File!$B$15</definedName>
+    <definedName name="ReformattedNumber">Number!$B$15</definedName>
+    <definedName name="Replace">Text!$B$11</definedName>
+    <definedName name="Result">Text!$B$12</definedName>
+    <definedName name="Search">Text!$B$10</definedName>
+    <definedName name="Text_Input">Text!$B$4</definedName>
+    <definedName name="ThisMonthFirstWorkingDay">Date!$B$14</definedName>
+    <definedName name="ThisMonthLastWorkingDay">Date!$C$14</definedName>
+    <definedName name="Today">Date!$B$11</definedName>
+    <definedName name="Trimmed">Text!$B$5</definedName>
+    <definedName name="TwoDecimals">Number!$B$7</definedName>
+    <definedName name="UpperCase">Text!$B$7</definedName>
+    <definedName name="YYYYMMDD">Date!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Last month's dates (First and Last)</t>
   </si>
@@ -272,57 +273,109 @@
     <t>Folder</t>
   </si>
   <si>
+    <t>Reformatted File Name:</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Date plus a number of days</t>
+  </si>
+  <si>
+    <t>Date plus a number of working days</t>
+  </si>
+  <si>
+    <t>Text to the left</t>
+  </si>
+  <si>
+    <t>Text to the right</t>
+  </si>
+  <si>
+    <t>Extracted text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>John C. Doe</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John C.</t>
+  </si>
+  <si>
+    <t>Cleaned Up</t>
+  </si>
+  <si>
+    <t>Project Notebook</t>
+  </si>
+  <si>
+    <t>- Use the cell containining the formula directly in another activity to get the value produced by your formula.</t>
+  </si>
+  <si>
+    <t>How to use the Project Notebook</t>
+  </si>
+  <si>
+    <t>How to save data</t>
+  </si>
+  <si>
+    <t>- The Project Notebook is intended for manipulating data when your automation is running. It is not intended as a place to store data.</t>
+  </si>
+  <si>
+    <t>-  To save data to an Excel file:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - If you indicate a file name that doesn't exist, it will be created when you run your project.</t>
+  </si>
+  <si>
+    <t>Formulas for working with dates</t>
+  </si>
+  <si>
+    <t>Formulas for working with text</t>
+  </si>
+  <si>
+    <t>Formulas for working with numbers</t>
+  </si>
+  <si>
+    <t>File System Helpers</t>
+  </si>
+  <si>
+    <t>Formulas for working with file names and paths</t>
+  </si>
+  <si>
+    <t>Custom Formulas</t>
+  </si>
+  <si>
+    <t>Insert your own formulas</t>
+  </si>
+  <si>
+    <t>- Add a "Write Cell" activity to put the data you want to manipulate using an Excel formula into the "input cell" for your formula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Add a "Use Excel File" activity and choose your target Excel file.</t>
+  </si>
+  <si>
+    <t>Your Project Notebook is intended to use Excel formulas for data manipulation and calculations  It includes several samples sheets to get you started, but you have the freedom to do anything you can do in Excel.</t>
+  </si>
+  <si>
     <t>C:\temp\Untitled Document.docx</t>
-  </si>
-  <si>
-    <t>Reformatted File Name:</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Date plus a number of days</t>
-  </si>
-  <si>
-    <t>Date plus a number of working days</t>
-  </si>
-  <si>
-    <t>Text to the left</t>
-  </si>
-  <si>
-    <t>Text to the right</t>
-  </si>
-  <si>
-    <t>Extracted text</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>John C. Doe</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>John C.</t>
-  </si>
-  <si>
-    <t>Cleaned Up</t>
-  </si>
-  <si>
-    <t>File System helpers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###,000"/>
+    <numFmt numFmtId="165" formatCode="yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,16 +404,148 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B744D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="42"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00819D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -476,12 +661,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339966"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF339966"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF4B183"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFF4B183"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF4B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF339966"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF339966"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="6" fontId="1" fillId="5" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyNumberFormat="0" applyFont="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -528,10 +873,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -547,13 +915,176 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="45">
+    <cellStyle name="Bottom Border" xfId="16" xr:uid="{79AD1433-2737-4ED4-9B85-92BE82D167F0}"/>
+    <cellStyle name="Bottom Green Border" xfId="17" xr:uid="{E9003193-DD9F-4D54-B68D-7574182AA968}"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma 2" xfId="44" xr:uid="{8262D58B-9960-4835-B4B0-91219CE3CFE9}"/>
+    <cellStyle name="Currency 2" xfId="40" xr:uid="{C56C1770-98D6-4A76-85B0-E047DEFE8B12}"/>
+    <cellStyle name="Currency 2 2" xfId="42" xr:uid="{6C07C4D8-79BD-467F-A57D-99C3750008CC}"/>
+    <cellStyle name="Currency 3" xfId="11" xr:uid="{69FE2FEE-EDD8-45F5-80C1-E98C476065C6}"/>
+    <cellStyle name="Date" xfId="18" xr:uid="{28983C7F-C8AB-428F-8F28-51CC52F36321}"/>
+    <cellStyle name="Date 2" xfId="39" xr:uid="{41606370-FA3B-451A-B0A4-6B4E6E39A539}"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="GrayCell" xfId="19" xr:uid="{5915F2CC-D46A-48C4-92DA-A6A9E94FDA36}"/>
+    <cellStyle name="GrayCell 2" xfId="30" xr:uid="{C932DE05-FB49-483F-985D-57A9ABD606BE}"/>
+    <cellStyle name="Heading 1 2" xfId="5" xr:uid="{82C3C52D-147B-4D10-8C16-36249B0EBFF3}"/>
+    <cellStyle name="Heading 1 3" xfId="12" xr:uid="{4AEABA34-9408-452D-9791-98CF9437E228}"/>
+    <cellStyle name="Heading 2 2" xfId="6" xr:uid="{C49A64C2-87DB-428F-8BE5-6F4A16C703B0}"/>
+    <cellStyle name="Heading 2 3" xfId="13" xr:uid="{30CD63F8-2D6F-4068-B49F-8E19FB4ACF74}"/>
+    <cellStyle name="Heading 3 2" xfId="29" xr:uid="{126909D3-50E4-40FC-935F-6E11ABF6544A}"/>
+    <cellStyle name="Heading 3 3" xfId="14" xr:uid="{FFA63157-1AF9-419F-82E3-01CF23A4DF92}"/>
+    <cellStyle name="Heading 4 2" xfId="15" xr:uid="{FCCBE45D-A9A8-4959-9110-165722CD1955}"/>
+    <cellStyle name="Highlight" xfId="20" xr:uid="{E8F0BE68-84F4-43BD-80A6-49D800518815}"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Left Border" xfId="21" xr:uid="{752567EA-4384-43AE-B676-88EEF319FF3E}"/>
+    <cellStyle name="Left Bottom Green Border" xfId="22" xr:uid="{34B3EEC9-1AFB-46BB-BA9D-9C4050C105CA}"/>
+    <cellStyle name="Left Green Border" xfId="23" xr:uid="{D9070FD4-0ABA-471F-926C-2D88574C9CAE}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{6BC7C099-EB82-48D1-AB31-46DA4D467DA5}"/>
+    <cellStyle name="Normal 3" xfId="32" xr:uid="{B49E7D7C-2375-45E2-BFFF-FA7F5541E5F2}"/>
+    <cellStyle name="Normal 4" xfId="33" xr:uid="{9BD2CCBA-D8AD-4C17-BD02-49AAD16AC878}"/>
+    <cellStyle name="Normal 5" xfId="35" xr:uid="{DBDC21D6-3639-4234-9464-6D51CBE00719}"/>
+    <cellStyle name="Normal 5 2" xfId="38" xr:uid="{1324672F-72D6-4A22-A055-2116AF0E4D81}"/>
+    <cellStyle name="Normal 5 2 2" xfId="43" xr:uid="{0127CB7F-5661-448C-936A-C419D8F806D8}"/>
+    <cellStyle name="Normal 5 3" xfId="41" xr:uid="{82CCEA6C-B6B6-49C9-BAF0-76633DEE9C38}"/>
+    <cellStyle name="OrangeBorder" xfId="24" xr:uid="{C7E0DD48-55D3-484F-BC11-2A5937DF3881}"/>
+    <cellStyle name="OrangeBorder 2" xfId="34" xr:uid="{150FC099-82C8-4045-AA82-309796EAFE86}"/>
+    <cellStyle name="Right Bottom Green Border" xfId="25" xr:uid="{6A2C4F5A-0DDE-4C11-8235-E324DEC16A81}"/>
+    <cellStyle name="Right Green Border" xfId="26" xr:uid="{01984877-D9ED-4DDE-ACEF-8C0EE05C3CBA}"/>
+    <cellStyle name="Start Text" xfId="2" xr:uid="{EDB0B951-A110-4146-8AEC-6A70E229A2D5}"/>
+    <cellStyle name="Title 2" xfId="4" xr:uid="{FB044FE1-B1E7-4D5F-A2B7-39BD77AC425B}"/>
+    <cellStyle name="Title 3" xfId="36" xr:uid="{BAB72052-24F6-409A-A358-28D4AD66341C}"/>
+    <cellStyle name="Title 4" xfId="37" xr:uid="{BF108802-D40E-4B55-AE23-02C2EDD1EC5C}"/>
+    <cellStyle name="Title 5" xfId="8" xr:uid="{76D2112B-61B8-4476-84DD-C0B6ED5DD63F}"/>
+    <cellStyle name="Year" xfId="27" xr:uid="{875B2B43-1B18-4303-B4D5-2FCD77B5DADF}"/>
+    <cellStyle name="YellowCell" xfId="28" xr:uid="{20928AD6-9307-413A-A508-863FF7AC9DB9}"/>
+    <cellStyle name="YellowCell 2" xfId="31" xr:uid="{982BBDC1-BDF7-4E08-B354-BEA94A3EC0BF}"/>
+    <cellStyle name="z A Column text" xfId="7" xr:uid="{23B87D12-C661-428D-98E4-29837A850E3A}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FF217346"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="double">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor rgb="FF217346"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="CustomTableStyle" pivot="0" count="2" xr9:uid="{C0886BD5-2816-460A-9ABA-29A772184C96}">
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+    </tableStyle>
+    <tableStyle name="ExcelTableStyle" pivot="0" count="7" xr9:uid="{1D1EB055-14F4-4341-8FDF-BB495A4C75BA}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF00819D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -563,6 +1094,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4276220</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA06491-CF0E-4949-9A14-F7F8F2B1270E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="5610225"/>
+          <a:ext cx="4038095" cy="3019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4219069</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02D60CF-8928-455B-9C78-A605CA86381D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="1857375"/>
+          <a:ext cx="4047619" cy="2590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,13 +1486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88115396-113A-4E92-ABEE-648E1977C738}">
-  <dimension ref="D1:G31"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="30" customWidth="1"/>
+    <col min="1" max="1" width="165.5703125" style="30" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="30" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="30" bestFit="1" customWidth="1"/>
@@ -876,100 +1500,123 @@
     <col min="6" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
       <c r="D4" s="31"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="33"/>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="33"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="33"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53392D88-1157-4343-9701-AA198E0565D5}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,275 +1628,291 @@
     <col min="7" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="25">
-        <v>7</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2">
-        <f ca="1">Date+Days</f>
-        <v>43926</v>
+        <v>58</v>
+      </c>
+      <c r="B6" s="25">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">WORKDAY(Date, Days)</f>
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <f ca="1">Date_Input+Days</f>
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <f ca="1">WORKDAY(Date_Input, Days)</f>
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="str">
-        <f ca="1">TEXT(Date,"YYYYMMDD")</f>
-        <v>20200329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2">
-        <f ca="1">TODAY()</f>
-        <v>43919</v>
-      </c>
-    </row>
+      <c r="B9" t="str">
+        <f ca="1">TEXT(Date_Input,"YYYYMMDD")</f>
+        <v>20200406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">TODAY()-WEEKDAY(TODAY(),2)-6</f>
-        <v>43906</v>
-      </c>
-      <c r="C11" s="2">
-        <f ca="1">LastWeekMonday+4</f>
-        <v>43910</v>
-      </c>
-      <c r="D11" s="2">
-        <f ca="1">LastWeekFriday+2</f>
-        <v>43912</v>
+        <f ca="1">TODAY()</f>
+        <v>43927</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">DATE(YEAR(TODAY()), MONTH(TODAY())-1, 1)</f>
-        <v>43862</v>
+        <f ca="1">TODAY()-WEEKDAY(TODAY(),2)-6</f>
+        <v>43920</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">DATE(YEAR(TODAY()), MONTH(TODAY()), 0)</f>
-        <v>43890</v>
+        <f ca="1">LastWeekMonday+4</f>
+        <v>43924</v>
+      </c>
+      <c r="D12" s="2">
+        <f ca="1">LastWeekFriday+2</f>
+        <v>43926</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1">DATE(YEAR(TODAY()), MONTH(TODAY())-1, 1)</f>
+        <v>43891</v>
+      </c>
+      <c r="C13" s="2">
+        <f ca="1">DATE(YEAR(TODAY()), MONTH(TODAY()), 0)</f>
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <f ca="1">WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY()),1)-1,1)</f>
-        <v>43892</v>
-      </c>
-      <c r="C13" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C14" s="2">
         <f ca="1">WORKDAY(DATE(YEAR(TODAY()),MONTH(TODAY())+1,1),-1)</f>
-        <v>43921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6" t="str">
-        <f>LEFT(B17, FIND(B18, B17)-1)</f>
-        <v>2008</v>
-      </c>
-      <c r="C21" s="6" t="str">
-        <f>RIGHT(B17, LEN(B17)-LEN(B21)-1)</f>
-        <v>12月31日 (水)</v>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f>IF(D18&lt;&gt;"", LEFT(C21, FIND(D18, C21)-1), C21)</f>
-        <v>12月31</v>
-      </c>
+      <c r="A21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f>LEFT(C21, FIND(C18, C21)-1)</f>
-        <v>12</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+        <f>LEFT(B18, FIND(B19, B18)-1)</f>
+        <v>2008</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>RIGHT(B18, LEN(B18)-LEN(B22)-1)</f>
+        <v>12月31日 (水)</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f>IF(D19&lt;&gt;"", LEFT(C22, FIND(D19, C22)-1), C22)</f>
+        <v>12月31</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6" t="str">
-        <f>RIGHT(D21, LEN(D21)-LEN(B22)-1)</f>
-        <v>31</v>
+        <f>LEFT(C22, FIND(C19, C22)-1)</f>
+        <v>12</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>RIGHT(D22, LEN(D22)-LEN(B23)-1)</f>
         <v>31</v>
-      </c>
-      <c r="B24" s="6" t="str" cm="1">
-        <f t="array" ref="B24">_xlfn.SWITCH(FIND("Y", B19), 1, B21, 2, B22, 3, B23)</f>
-        <v>2008</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6" t="str" cm="1">
-        <f t="array" ref="B25">_xlfn.SWITCH(FIND("M", B19), 1, B21, 2, B22, 3, B23)</f>
-        <v>12</v>
+        <f t="array" ref="B25">_xlfn.SWITCH(FIND("Y", B20), 1, B22, 2, B23, 3, B24)</f>
+        <v>2008</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6" t="str" cm="1">
-        <f t="array" ref="B26">_xlfn.SWITCH(FIND("D", B19), 1, B21, 2, B22, 3, B23)</f>
-        <v>31</v>
+        <f t="array" ref="B26">_xlfn.SWITCH(FIND("M", B20), 1, B22, 2, B23, 3, B24)</f>
+        <v>12</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6"/>
+      <c r="A27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="str" cm="1">
+        <f t="array" ref="B27">_xlfn.SWITCH(FIND("D", B20), 1, B22, 2, B23, 3, B24)</f>
+        <v>31</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="8">
-        <f>DATE(B24, B25, B26)</f>
+      <c r="B29" s="8">
+        <f>DATE(B25, B26, B27)</f>
         <v>39813</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="4">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7C60E3-5132-4EAF-A6AE-357FE13BC6C9}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1260,203 +1923,222 @@
     <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="str">
-        <f>TRIM(B3)</f>
-        <v>John C. Doe</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="28" t="str">
-        <f>TRIM(MID(Text, FIND(D4,Text)+LEN(D4), IFERROR(FIND(IF(E4="",CHAR(10),E4),Text,FIND(D4,Text)+LEN(D4)),LEN(Text)+1)-FIND(D4,Text)-LEN(D4)))</f>
-        <v>C.</v>
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <f>LEN(B3)</f>
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="B5" t="str">
+        <f>TRIM(B4)</f>
+        <v>John C. Doe</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="28" t="str">
-        <f>TRIM(MID(Text, FIND(D5,Text)+LEN(D5), IFERROR(FIND(IF(E5="",CHAR(10),E5),Text,FIND(D5,Text)+LEN(D5)),LEN(Text)+1)-FIND(D5,Text)-LEN(D5)))</f>
-        <v>C. Doe</v>
+        <f>TRIM(MID(Text_Input, FIND(D5,Text_Input)+LEN(D5), IFERROR(FIND(IF(E5="",CHAR(10),E5),Text_Input,FIND(D5,Text_Input)+LEN(D5)),LEN(Text_Input)+1)-FIND(D5,Text_Input)-LEN(D5)))</f>
+        <v>C.</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="str">
-        <f>UPPER(B3)</f>
-        <v>JOHN C. DOE</v>
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <f>LEN(B4)</f>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="25"/>
       <c r="F6" s="28" t="str">
-        <f>TRIM(MID(Text, FIND(D6,Text)+LEN(D6), IFERROR(FIND(IF(E6="",CHAR(10),E6),Text,FIND(D6,Text)+LEN(D6)),LEN(Text)+1)-FIND(D6,Text)-LEN(D6)))</f>
-        <v>John C.</v>
+        <f>TRIM(MID(Text_Input, FIND(D6,Text_Input)+LEN(D6), IFERROR(FIND(IF(E6="",CHAR(10),E6),Text_Input,FIND(D6,Text_Input)+LEN(D6)),LEN(Text_Input)+1)-FIND(D6,Text_Input)-LEN(D6)))</f>
+        <v>C. Doe</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="str">
+        <f>UPPER(B4)</f>
+        <v>JOHN C. DOE</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f>TRIM(MID(Text_Input, FIND(D7,Text_Input)+LEN(D7), IFERROR(FIND(IF(E7="",CHAR(10),E7),Text_Input,FIND(D7,Text_Input)+LEN(D7)),LEN(Text_Input)+1)-FIND(D7,Text_Input)-LEN(D7)))</f>
+        <v>John C.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="str">
-        <f>LOWER(B3)</f>
+      <c r="B8" t="str">
+        <f>LOWER(B4)</f>
         <v>john c. doe</v>
       </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="28" t="str">
-        <f>TRIM(MID(Text, FIND(D7,Text)+LEN(D7), IFERROR(FIND(IF(E7="",CHAR(10),E7),Text,FIND(D7,Text)+LEN(D7)),LEN(Text)+1)-FIND(D7,Text)-LEN(D7)))</f>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="28" t="str">
+        <f>TRIM(MID(Text_Input, FIND(D8,Text_Input)+LEN(D8), IFERROR(FIND(IF(E8="",CHAR(10),E8),Text_Input,FIND(D8,Text_Input)+LEN(D8)),LEN(Text_Input)+1)-FIND(D8,Text_Input)-LEN(D8)))</f>
         <v>Doe</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="28" t="str">
-        <f>TRIM(MID(Text, FIND(D8,Text)+LEN(D8), IFERROR(FIND(IF(E8="",CHAR(10),E8),Text,FIND(D8,Text)+LEN(D8)),LEN(Text)+1)-FIND(D8,Text)-LEN(D8)))</f>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="28" t="str">
+        <f>TRIM(MID(Text_Input, FIND(D9,Text_Input)+LEN(D9), IFERROR(FIND(IF(E9="",CHAR(10),E9),Text_Input,FIND(D9,Text_Input)+LEN(D9)),LEN(Text_Input)+1)-FIND(D9,Text_Input)-LEN(D9)))</f>
         <v>John C. Doe</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="str">
-        <f>SUBSTITUTE(Text, B9, B10)</f>
-        <v>Mary C. Doe</v>
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="str">
+        <f>SUBSTITUTE(Text_Input, B10, B11)</f>
+        <v>Mary C. Doe</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="b">
-        <f>IF(IFERROR(FIND(B9, Text), FALSE), TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="b">
+        <f>IF(IFERROR(FIND(B10, Text), FALSE), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="str">
-        <f>LEFT(Text, LEN(Text)-LEN(LastName)-1)</f>
-        <v>John C.</v>
-      </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="str">
+        <f>LEFT(Text_Input, LEN(Text_Input)-LEN(LastName)-1)</f>
+        <v>John C.</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(B3," ",REPT(" ",LEN(B3))),LEN(B3)))</f>
+      <c r="B16" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(B4," ",REPT(" ",LEN(B4))),LEN(B4)))</f>
         <v>Doe</v>
       </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1464,9 +2146,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C83CC8-3284-4752-8E92-8CBBD1003835}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1476,102 +2160,121 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B4" s="29">
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="25">
-        <f>VALUE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Number, CHAR(13), ""), CHAR(10), ""), CHAR(160), "")))</f>
+    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="25">
+        <f>VALUE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Number_Input, CHAR(13), ""), CHAR(10), ""), CHAR(160), "")))</f>
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>INT(CleanNumber)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>INT(CleanNumber*100)/100</f>
         <v>3.14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="11">
-        <f>IF(B11&lt;&gt;"",IF(B12&lt;&gt;"",_xlfn.NUMBERVALUE(B10, B11, B12),_xlfn.NUMBERVALUE(B10, B11)),IF(B12&lt;&gt;"",_xlfn.NUMBERVALUE(B10,, B12),_xlfn.NUMBERVALUE(B10)))</f>
+      <c r="B15" s="11">
+        <f>IF(B12&lt;&gt;"",IF(B13&lt;&gt;"",_xlfn.NUMBERVALUE(B11, B12, B13),_xlfn.NUMBERVALUE(B11, B12)),IF(B13&lt;&gt;"",_xlfn.NUMBERVALUE(B11,, B13),_xlfn.NUMBERVALUE(B11)))</f>
         <v>123456.78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1580,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B15AA95-D2AA-4AD6-8E83-DBFAD20B8498}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,86 +2296,139 @@
     <col min="3" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="47"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="26"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B6" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(B6,"\",REPT(" ",LEN(B6))),LEN(B6)))</f>
+        <v>Untitled Document.docx</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(B8,".",REPT(" ",LEN(B8))),LEN(B8)))</f>
+        <v>docx</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f>LEFT(B8, LEN(B8)-LEN(B9)-1)</f>
+        <v>Untitled Document</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>LEFT(B6, LEN(B6)-LEN(B8))</f>
+        <v>C:\temp\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="17" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(B5,"\",REPT(" ",LEN(B5))),LEN(B5)))</f>
-        <v>Untitled Document.docx</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="17" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(B7,".",REPT(" ",LEN(B7))),LEN(B7)))</f>
-        <v>docx</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="17" t="str">
-        <f>LEFT(B7, LEN(B7)-LEN(B8)-1)</f>
-        <v>Untitled Document</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="18" t="str">
-        <f>LEFT(B5, LEN(B5)-LEN(B7))</f>
-        <v>C:\temp\</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="25" t="str">
+      <c r="B15" s="25" t="str">
         <f>FileNameNoExtension &amp; "." &amp; FileExtension</f>
         <v>Untitled Document.docx</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95188A8B-20B9-44C0-8B2D-2363D0E3925F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Download File from Website/Project_Notebook.xlsx
+++ b/Download File from Website/Project_Notebook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Source\repos\StudioXTemplates\Download File from Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\studio\Studio\UiPath.Studio.Plugin.Workflow\ProjectTemplates\Business Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3245100F-06E6-4EE8-B897-F72B7E14A9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B5E3D-CC52-4BC8-BE61-079C0D7486C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="390" windowWidth="19530" windowHeight="11490" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Project Notebook" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Text" sheetId="3" r:id="rId3"/>
     <sheet name="Number" sheetId="4" r:id="rId4"/>
     <sheet name="File" sheetId="5" r:id="rId5"/>
-    <sheet name="Custom" sheetId="6" r:id="rId6"/>
+    <sheet name="Scratchpad" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="CleanNumber">Number!$B$5</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>Last month's dates (First and Last)</t>
   </si>
@@ -343,12 +343,6 @@
   </si>
   <si>
     <t>Formulas for working with file names and paths</t>
-  </si>
-  <si>
-    <t>Custom Formulas</t>
-  </si>
-  <si>
-    <t>Insert your own formulas</t>
   </si>
   <si>
     <t>- Add a "Write Cell" activity to put the data you want to manipulate using an Excel formula into the "input cell" for your formula.</t>
@@ -1101,22 +1095,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4276220</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>56773</xdr:rowOff>
+      <xdr:colOff>4219069</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA06491-CF0E-4949-9A14-F7F8F2B1270E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02D60CF-8928-455B-9C78-A605CA86381D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,8 +1126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="5610225"/>
-          <a:ext cx="4038095" cy="3019048"/>
+          <a:off x="171450" y="1876425"/>
+          <a:ext cx="4047619" cy="2590476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,22 +1139,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4219069</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190176</xdr:rowOff>
+      <xdr:colOff>4266694</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>75824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02D60CF-8928-455B-9C78-A605CA86381D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962976CE-2C8F-455D-A37F-D5746FB47B40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,8 +1170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="1857375"/>
-          <a:ext cx="4047619" cy="2590476"/>
+          <a:off x="219075" y="5705475"/>
+          <a:ext cx="4047619" cy="3009524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,116 +1484,116 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="165.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="165.5546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>75</v>
       </c>
@@ -1619,16 +1613,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
@@ -1636,7 +1630,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
     </row>
-    <row r="2" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>76</v>
       </c>
@@ -1644,19 +1638,19 @@
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>58</v>
       </c>
@@ -1664,44 +1658,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="2">
         <f ca="1">Date_Input+Days</f>
-        <v>43934</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="2">
         <f ca="1">WORKDAY(Date_Input, Days)</f>
-        <v>43936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">TEXT(Date_Input,"YYYYMMDD")</f>
-        <v>20200406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20200410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2">
         <f ca="1">TODAY()</f>
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1712,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1725,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1744,8 +1738,8 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="45" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1747,7 @@
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1761,7 +1755,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -1771,7 +1765,7 @@
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>23</v>
       </c>
@@ -1785,7 +1779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>24</v>
       </c>
@@ -1795,7 +1789,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
@@ -1803,7 +1797,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>12月31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
@@ -1831,7 +1825,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1836,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1847,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -1864,7 +1858,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
@@ -1875,7 +1869,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>22</v>
       </c>
@@ -1883,7 +1877,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
@@ -1914,16 +1908,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="25" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>53</v>
       </c>
@@ -1933,7 +1927,7 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>77</v>
       </c>
@@ -1943,7 +1937,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1963,7 +1957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1985,7 +1979,7 @@
         <v>C.</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>C. Doe</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2025,7 +2019,7 @@
         <v>John C.</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2045,7 +2039,7 @@
         <v>Doe</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>64</v>
       </c>
@@ -2054,7 +2048,7 @@
         <v>John C. Doe</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2065,7 +2059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2076,7 +2070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2088,7 +2082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2100,12 +2094,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +2123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
@@ -2152,15 +2146,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
@@ -2168,7 +2162,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>78</v>
       </c>
@@ -2176,13 +2170,13 @@
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2190,7 +2184,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>68</v>
       </c>
@@ -2199,7 +2193,7 @@
         <v>3.1415929999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2208,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2217,20 +2211,20 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="47"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -2238,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
@@ -2247,7 +2241,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2255,13 +2249,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
@@ -2289,14 +2283,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>79</v>
       </c>
@@ -2304,7 +2298,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>80</v>
       </c>
@@ -2312,39 +2306,39 @@
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:4" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="42" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="47"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="26"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
@@ -2353,7 +2347,7 @@
         <v>Untitled Document.docx</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>42</v>
       </c>
@@ -2362,7 +2356,7 @@
         <v>docx</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>41</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>Untitled Document</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>56</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>C:\temp\</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>57</v>
       </c>
@@ -2401,35 +2395,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95188A8B-20B9-44C0-8B2D-2363D0E3925F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="48"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>